--- a/files/test_files/composicao_teste.xlsx
+++ b/files/test_files/composicao_teste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\pythonProject\CalculosFrequencia\filtercomp\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\Projetos\filtercomp\files\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F77AC93-1E86-4352-9930-C863BDFAD634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA0FEA-BA5F-425A-89EA-3B8F4E881A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B01F5496-B8EA-4B4D-906B-0DA441535964}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{B01F5496-B8EA-4B4D-906B-0DA441535964}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_1" sheetId="49" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Water</t>
   </si>
@@ -48,15 +48,6 @@
   </si>
   <si>
     <t>Temperature</t>
-  </si>
-  <si>
-    <t>Gas_flow</t>
-  </si>
-  <si>
-    <t>Water_flow</t>
-  </si>
-  <si>
-    <t>Oil_flow</t>
   </si>
   <si>
     <t>Pressure_atm</t>
@@ -164,9 +155,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,7 +195,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -310,7 +301,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -452,7 +443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,10 +454,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AP21"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,16 +465,13 @@
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="40" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -491,26 +479,20 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -541,11 +523,8 @@
       <c r="AK1" s="4"/>
       <c r="AL1" s="4"/>
       <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -556,35 +535,26 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>4203.125</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>4203.125</v>
-      </c>
-      <c r="H2">
         <v>0.5</v>
       </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
     </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T18" s="2"/>
+    <row r="18" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T19" s="2"/>
+    <row r="19" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T20" s="2"/>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T21" s="2"/>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
